--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT9" t="n">
         <v>1.79</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU17" t="n">
         <v>0.76</v>
@@ -4151,7 +4151,7 @@
         <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU18" t="n">
         <v>1.08</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.64</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT25" t="n">
         <v>0.47</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU26" t="n">
         <v>1.9</v>
@@ -5978,7 +5978,7 @@
         <v>2.73</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU27" t="n">
         <v>2.2</v>
@@ -6787,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
         <v>1.27</v>
@@ -8008,7 +8008,7 @@
         <v>1.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU37" t="n">
         <v>1.72</v>
@@ -8820,7 +8820,7 @@
         <v>1.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU41" t="n">
         <v>1.53</v>
@@ -9223,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT44" t="n">
         <v>1.36</v>
@@ -9832,7 +9832,7 @@
         <v>2.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT46" t="n">
         <v>1.36</v>
@@ -10038,7 +10038,7 @@
         <v>1.14</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10444,7 +10444,7 @@
         <v>1.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49" t="n">
         <v>1.39</v>
@@ -10644,7 +10644,7 @@
         <v>2.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>1.79</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU56" t="n">
         <v>1.81</v>
@@ -12268,10 +12268,10 @@
         <v>1.2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU58" t="n">
         <v>1.12</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>0.47</v>
@@ -14098,7 +14098,7 @@
         <v>1.33</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU67" t="n">
         <v>1.7</v>
@@ -14301,7 +14301,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
         <v>1.64</v>
@@ -15516,7 +15516,7 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT74" t="n">
         <v>1.6</v>
@@ -16125,7 +16125,7 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
         <v>0.87</v>
@@ -16331,7 +16331,7 @@
         <v>2.14</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU78" t="n">
         <v>1.88</v>
@@ -16737,7 +16737,7 @@
         <v>2.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU80" t="n">
         <v>2.36</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT82" t="n">
         <v>1.6</v>
@@ -17346,7 +17346,7 @@
         <v>0.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU83" t="n">
         <v>1.39</v>
@@ -18564,7 +18564,7 @@
         <v>2.14</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -20185,10 +20185,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU97" t="n">
         <v>1.77</v>
@@ -20388,7 +20388,7 @@
         <v>2.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT98" t="n">
         <v>1.79</v>
@@ -20594,7 +20594,7 @@
         <v>1.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU106" t="n">
         <v>1.28</v>
@@ -22218,7 +22218,7 @@
         <v>1.57</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU107" t="n">
         <v>1.23</v>
@@ -22418,7 +22418,7 @@
         <v>1.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT108" t="n">
         <v>1.64</v>
@@ -24248,7 +24248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT118" t="n">
         <v>0.47</v>
@@ -24857,7 +24857,7 @@
         <v>2.73</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU120" t="n">
         <v>2.19</v>
@@ -25260,7 +25260,7 @@
         <v>1.58</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT122" t="n">
         <v>1.27</v>
@@ -26481,7 +26481,7 @@
         <v>1.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.85</v>
@@ -27290,7 +27290,7 @@
         <v>1.08</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27902,7 +27902,7 @@
         <v>1.2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28102,7 +28102,7 @@
         <v>1.42</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT136" t="n">
         <v>1.36</v>
@@ -28305,7 +28305,7 @@
         <v>1.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT137" t="n">
         <v>1.36</v>
@@ -28714,7 +28714,7 @@
         <v>1.14</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -28914,7 +28914,7 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT140" t="n">
         <v>1.79</v>
@@ -29120,7 +29120,7 @@
         <v>1.2</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -30187,6 +30187,412 @@
       </c>
       <c r="BK146" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2376091</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45037.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>30</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>8</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4</v>
+      </c>
+      <c r="S147" t="n">
+        <v>12</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2376090</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45037.54861111111</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['90+7', '90+9']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>7</v>
+      </c>
+      <c r="S148" t="n">
+        <v>13</v>
+      </c>
+      <c r="T148" t="n">
+        <v>4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT6" t="n">
         <v>1.6</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU7" t="n">
         <v>1.14</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT8" t="n">
         <v>0.93</v>
@@ -2324,7 +2324,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU16" t="n">
         <v>2.1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT18" t="n">
         <v>0.93</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU19" t="n">
         <v>1.27</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT21" t="n">
         <v>0.87</v>
@@ -5166,7 +5166,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU28" t="n">
         <v>1.1</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.87</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU32" t="n">
         <v>1.56</v>
@@ -7196,7 +7196,7 @@
         <v>0.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU33" t="n">
         <v>1.18</v>
@@ -7602,7 +7602,7 @@
         <v>2.73</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
         <v>0.87</v>
@@ -8411,7 +8411,7 @@
         <v>2.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.27</v>
@@ -9020,10 +9020,10 @@
         <v>2.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU42" t="n">
         <v>1.26</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU44" t="n">
         <v>1.94</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU45" t="n">
         <v>1.9</v>
@@ -9835,7 +9835,7 @@
         <v>1.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10035,7 +10035,7 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT47" t="n">
         <v>0.93</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU50" t="n">
         <v>1.8</v>
@@ -12065,10 +12065,10 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12471,10 +12471,10 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU59" t="n">
         <v>1.3</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT62" t="n">
         <v>1.6</v>
@@ -13286,7 +13286,7 @@
         <v>2.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU63" t="n">
         <v>2.28</v>
@@ -13689,10 +13689,10 @@
         <v>2.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT68" t="n">
         <v>0.93</v>
@@ -14504,7 +14504,7 @@
         <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.21</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT70" t="n">
         <v>0.47</v>
@@ -14910,7 +14910,7 @@
         <v>0.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15316,7 +15316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU73" t="n">
         <v>1.9</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT75" t="n">
         <v>1.27</v>
@@ -15922,7 +15922,7 @@
         <v>0.29</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT76" t="n">
         <v>0.47</v>
@@ -16328,7 +16328,7 @@
         <v>1.29</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT78" t="n">
         <v>0.93</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -17549,7 +17549,7 @@
         <v>1.2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -17749,10 +17749,10 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT86" t="n">
         <v>1.27</v>
@@ -18158,7 +18158,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU87" t="n">
         <v>1.92</v>
@@ -18561,7 +18561,7 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT89" t="n">
         <v>0.93</v>
@@ -19173,7 +19173,7 @@
         <v>0.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU92" t="n">
         <v>1.37</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
         <v>1.6</v>
@@ -19982,10 +19982,10 @@
         <v>1.56</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20391,7 +20391,7 @@
         <v>1.4</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -20591,7 +20591,7 @@
         <v>0.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT99" t="n">
         <v>0.93</v>
@@ -20794,10 +20794,10 @@
         <v>1.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU100" t="n">
         <v>1.93</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT107" t="n">
         <v>0.93</v>
@@ -22421,7 +22421,7 @@
         <v>1.6</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU108" t="n">
         <v>1.74</v>
@@ -22624,7 +22624,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU109" t="n">
         <v>1.74</v>
@@ -22824,7 +22824,7 @@
         <v>0.27</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT110" t="n">
         <v>0.47</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT112" t="n">
         <v>0.87</v>
@@ -23842,7 +23842,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.93</v>
@@ -24042,10 +24042,10 @@
         <v>1.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU116" t="n">
         <v>1.22</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT119" t="n">
         <v>0.87</v>
@@ -25057,7 +25057,7 @@
         <v>1.18</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>0.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -25669,7 +25669,7 @@
         <v>1.2</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -26072,10 +26072,10 @@
         <v>1.91</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.19</v>
@@ -26681,7 +26681,7 @@
         <v>1.46</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>0.85</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT130" t="n">
         <v>0.87</v>
@@ -27090,7 +27090,7 @@
         <v>2.73</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU131" t="n">
         <v>2.17</v>
@@ -27493,10 +27493,10 @@
         <v>1.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU133" t="n">
         <v>1.52</v>
@@ -28105,7 +28105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU136" t="n">
         <v>1.79</v>
@@ -28308,7 +28308,7 @@
         <v>1.4</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28711,7 +28711,7 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT139" t="n">
         <v>0.93</v>
@@ -28917,7 +28917,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU140" t="n">
         <v>1.84</v>
@@ -30593,6 +30593,615 @@
       </c>
       <c r="BK148" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2376093</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45038.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>30</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="n">
+        <v>3</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2376089</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45038.59027777778</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['25', '65']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+      <c r="R150" t="n">
+        <v>7</v>
+      </c>
+      <c r="S150" t="n">
+        <v>12</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2376092</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>30</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>7</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT2" t="n">
         <v>0.87</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0.47</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT4" t="n">
         <v>1.53</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.53</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.53</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU7" t="n">
         <v>1.14</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.93</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT11" t="n">
         <v>0.87</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>2.35</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU13" t="n">
         <v>1.65</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU14" t="n">
         <v>2.26</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0.87</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>2.04</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -5369,7 +5369,7 @@
         <v>1.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU24" t="n">
         <v>1.32</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT27" t="n">
         <v>0.93</v>
@@ -6584,10 +6584,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU30" t="n">
         <v>1.49</v>
@@ -6790,7 +6790,7 @@
         <v>1.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6993,7 +6993,7 @@
         <v>1.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU32" t="n">
         <v>1.56</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT33" t="n">
         <v>1.73</v>
@@ -7396,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT35" t="n">
         <v>1.53</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT37" t="n">
         <v>0.93</v>
@@ -8414,7 +8414,7 @@
         <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU39" t="n">
         <v>1.43</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -9020,7 +9020,7 @@
         <v>2.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>1.73</v>
@@ -9226,7 +9226,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.23</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU44" t="n">
         <v>1.94</v>
@@ -9835,7 +9835,7 @@
         <v>1.4</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10035,7 +10035,7 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT47" t="n">
         <v>0.93</v>
@@ -10241,7 +10241,7 @@
         <v>2.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>1.97</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU51" t="n">
         <v>1.67</v>
@@ -11050,7 +11050,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
         <v>0.87</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU53" t="n">
         <v>2.3</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT55" t="n">
         <v>0.47</v>
@@ -12068,7 +12068,7 @@
         <v>2.2</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT59" t="n">
         <v>1.53</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU60" t="n">
         <v>1.2</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>1.75</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1.24</v>
@@ -13283,10 +13283,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU63" t="n">
         <v>2.28</v>
@@ -14907,10 +14907,10 @@
         <v>1.43</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15113,7 +15113,7 @@
         <v>1.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.73</v>
@@ -15519,7 +15519,7 @@
         <v>1.6</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15719,10 +15719,10 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT80" t="n">
         <v>0.93</v>
@@ -16940,7 +16940,7 @@
         <v>1.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU81" t="n">
         <v>1.77</v>
@@ -17143,7 +17143,7 @@
         <v>1.4</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU82" t="n">
         <v>1.35</v>
@@ -17343,7 +17343,7 @@
         <v>1.13</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>0.93</v>
@@ -17749,10 +17749,10 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17955,7 +17955,7 @@
         <v>1.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU86" t="n">
         <v>1.21</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT88" t="n">
         <v>0.47</v>
@@ -18970,7 +18970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19170,7 +19170,7 @@
         <v>1.22</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT92" t="n">
         <v>1.53</v>
@@ -19373,7 +19373,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT93" t="n">
         <v>0.87</v>
@@ -19576,7 +19576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT94" t="n">
         <v>0.47</v>
@@ -19782,7 +19782,7 @@
         <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU95" t="n">
         <v>1.28</v>
@@ -19985,7 +19985,7 @@
         <v>1.53</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20591,7 +20591,7 @@
         <v>0.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>0.93</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU101" t="n">
         <v>2.23</v>
@@ -21203,7 +21203,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU102" t="n">
         <v>1.74</v>
@@ -21403,10 +21403,10 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21606,7 +21606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT104" t="n">
         <v>0.87</v>
@@ -23027,10 +23027,10 @@
         <v>1.2</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.36</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT112" t="n">
         <v>0.87</v>
@@ -23436,7 +23436,7 @@
         <v>1.2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU113" t="n">
         <v>1.58</v>
@@ -23636,10 +23636,10 @@
         <v>1.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>2.21</v>
@@ -23839,10 +23839,10 @@
         <v>1.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU115" t="n">
         <v>1.93</v>
@@ -24854,7 +24854,7 @@
         <v>1.09</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT120" t="n">
         <v>0.93</v>
@@ -25057,10 +25057,10 @@
         <v>1.18</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU121" t="n">
         <v>1.49</v>
@@ -25263,7 +25263,7 @@
         <v>1.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25463,7 +25463,7 @@
         <v>2.1</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT123" t="n">
         <v>1.73</v>
@@ -25669,7 +25669,7 @@
         <v>1.2</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU125" t="n">
         <v>1.88</v>
@@ -26478,7 +26478,7 @@
         <v>1.08</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT128" t="n">
         <v>0.93</v>
@@ -26684,7 +26684,7 @@
         <v>2.2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU129" t="n">
         <v>1.87</v>
@@ -27087,7 +27087,7 @@
         <v>1.77</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT131" t="n">
         <v>1.53</v>
@@ -27293,7 +27293,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27493,7 +27493,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT133" t="n">
         <v>1.73</v>
@@ -27696,10 +27696,10 @@
         <v>1.62</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU134" t="n">
         <v>1.31</v>
@@ -28105,7 +28105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU136" t="n">
         <v>1.79</v>
@@ -28308,7 +28308,7 @@
         <v>1.4</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28511,7 +28511,7 @@
         <v>2.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -28711,7 +28711,7 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT139" t="n">
         <v>0.93</v>
@@ -29320,7 +29320,7 @@
         <v>0.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT142" t="n">
         <v>0.47</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT143" t="n">
         <v>0.87</v>
@@ -29726,10 +29726,10 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU144" t="n">
         <v>2.14</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU145" t="n">
         <v>1.66</v>
@@ -30135,7 +30135,7 @@
         <v>1.2</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU146" t="n">
         <v>1.65</v>
@@ -30947,7 +30947,7 @@
         <v>2.2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU150" t="n">
         <v>1.85</v>
@@ -31147,7 +31147,7 @@
         <v>1.64</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>1.53</v>
@@ -31202,6 +31202,818 @@
       </c>
       <c r="BK151" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2376096</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45041.54166666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['41', '45', '66']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>6</v>
+      </c>
+      <c r="R152" t="n">
+        <v>8</v>
+      </c>
+      <c r="S152" t="n">
+        <v>14</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2376095</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45042.41666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>3</v>
+      </c>
+      <c r="R153" t="n">
+        <v>4</v>
+      </c>
+      <c r="S153" t="n">
+        <v>7</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2376098</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45042.50347222222</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['41', '79']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>6</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V154" t="n">
+        <v>12</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2376097</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45042.59027777778</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>6</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>1.43</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT15" t="n">
         <v>0.47</v>
@@ -4760,7 +4760,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT24" t="n">
         <v>1.19</v>
@@ -6384,7 +6384,7 @@
         <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT32" t="n">
         <v>1.19</v>
@@ -8211,7 +8211,7 @@
         <v>1.53</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU38" t="n">
         <v>1.09</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT41" t="n">
         <v>0.93</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT49" t="n">
         <v>0.93</v>
@@ -11053,7 +11053,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU52" t="n">
         <v>1.74</v>
@@ -11456,7 +11456,7 @@
         <v>1.4</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT54" t="n">
         <v>1.56</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU64" t="n">
         <v>1.51</v>
@@ -15110,7 +15110,7 @@
         <v>1.29</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT72" t="n">
         <v>0.9399999999999999</v>
@@ -16128,7 +16128,7 @@
         <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU77" t="n">
         <v>1.26</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT84" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>1.33</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU90" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>2.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU93" t="n">
         <v>2.26</v>
@@ -21609,7 +21609,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU104" t="n">
         <v>1.32</v>
@@ -21809,7 +21809,7 @@
         <v>0.3</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT105" t="n">
         <v>0.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -23433,7 +23433,7 @@
         <v>1.45</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT113" t="n">
         <v>1.19</v>
@@ -24654,7 +24654,7 @@
         <v>2.2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU119" t="n">
         <v>1.88</v>
@@ -25666,7 +25666,7 @@
         <v>1.55</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT124" t="n">
         <v>1.19</v>
@@ -26887,7 +26887,7 @@
         <v>1.53</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU130" t="n">
         <v>1.16</v>
@@ -27899,7 +27899,7 @@
         <v>1.08</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
         <v>0.93</v>
@@ -29117,7 +29117,7 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT141" t="n">
         <v>0.93</v>
@@ -29526,7 +29526,7 @@
         <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -30132,7 +30132,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT146" t="n">
         <v>1.56</v>
@@ -32014,6 +32014,209 @@
       </c>
       <c r="BK155" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2376094</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45043.54166666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>31</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['65', '67']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>10</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>12</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.56</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT7" t="n">
         <v>1.19</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU17" t="n">
         <v>0.76</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
         <v>0.93</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU26" t="n">
         <v>1.9</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>1.53</v>
@@ -8008,7 +8008,7 @@
         <v>1.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU37" t="n">
         <v>1.72</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT38" t="n">
         <v>0.8100000000000001</v>
@@ -10444,7 +10444,7 @@
         <v>1.31</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.39</v>
@@ -11865,7 +11865,7 @@
         <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU56" t="n">
         <v>1.81</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -15922,7 +15922,7 @@
         <v>0.29</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
         <v>0.47</v>
@@ -16737,7 +16737,7 @@
         <v>2.75</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU80" t="n">
         <v>2.36</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT86" t="n">
         <v>1.19</v>
@@ -18564,7 +18564,7 @@
         <v>2.2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>1.56</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT96" t="n">
         <v>1.19</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -22015,7 +22015,7 @@
         <v>1.4</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.28</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT107" t="n">
         <v>0.93</v>
@@ -24042,7 +24042,7 @@
         <v>1.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT116" t="n">
         <v>1.53</v>
@@ -24248,7 +24248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -26072,7 +26072,7 @@
         <v>1.91</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
         <v>1.73</v>
@@ -26481,7 +26481,7 @@
         <v>1.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.85</v>
@@ -26884,7 +26884,7 @@
         <v>0.85</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT130" t="n">
         <v>0.8100000000000001</v>
@@ -29120,7 +29120,7 @@
         <v>1.31</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -30338,7 +30338,7 @@
         <v>1.6</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU147" t="n">
         <v>1.8</v>
@@ -30741,7 +30741,7 @@
         <v>1.79</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT149" t="n">
         <v>1.73</v>
@@ -32217,6 +32217,209 @@
       </c>
       <c r="BK156" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2376101</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45045.54166666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['44', '71', '85']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>4</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>1.19</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT13" t="n">
         <v>1.56</v>
@@ -3542,7 +3542,7 @@
         <v>1.31</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>2.1</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT17" t="n">
         <v>0.88</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU18" t="n">
         <v>1.08</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU19" t="n">
         <v>1.27</v>
@@ -5569,10 +5569,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.25</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>0.88</v>
@@ -5978,7 +5978,7 @@
         <v>2.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU27" t="n">
         <v>2.2</v>
@@ -6181,7 +6181,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU28" t="n">
         <v>1.1</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT29" t="n">
         <v>0.8100000000000001</v>
@@ -6787,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT31" t="n">
         <v>1.19</v>
@@ -7196,7 +7196,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU33" t="n">
         <v>1.18</v>
@@ -7602,7 +7602,7 @@
         <v>2.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -7802,10 +7802,10 @@
         <v>0.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.82</v>
@@ -8411,7 +8411,7 @@
         <v>2.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT39" t="n">
         <v>1.19</v>
@@ -8820,7 +8820,7 @@
         <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU41" t="n">
         <v>1.53</v>
@@ -9023,7 +9023,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU42" t="n">
         <v>1.26</v>
@@ -9223,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT43" t="n">
         <v>0.9399999999999999</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT44" t="n">
         <v>1.19</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU45" t="n">
         <v>1.9</v>
@@ -9832,7 +9832,7 @@
         <v>2.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT46" t="n">
         <v>1.19</v>
@@ -10038,7 +10038,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT48" t="n">
         <v>0.9399999999999999</v>
@@ -10644,10 +10644,10 @@
         <v>2.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU50" t="n">
         <v>1.8</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>0.9399999999999999</v>
@@ -11662,7 +11662,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.15</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>0.88</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT57" t="n">
         <v>1.19</v>
@@ -12268,10 +12268,10 @@
         <v>1.2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU58" t="n">
         <v>1.12</v>
@@ -12474,7 +12474,7 @@
         <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU59" t="n">
         <v>1.3</v>
@@ -13689,10 +13689,10 @@
         <v>2.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13892,10 +13892,10 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.78</v>
@@ -14095,10 +14095,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU67" t="n">
         <v>1.7</v>
@@ -14501,10 +14501,10 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU69" t="n">
         <v>1.21</v>
@@ -14704,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.83</v>
@@ -15316,7 +15316,7 @@
         <v>1.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU73" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
         <v>1.56</v>
@@ -15925,7 +15925,7 @@
         <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.17</v>
@@ -16125,7 +16125,7 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8100000000000001</v>
@@ -16328,10 +16328,10 @@
         <v>1.29</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU78" t="n">
         <v>1.88</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9399999999999999</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT82" t="n">
         <v>1.56</v>
@@ -17346,7 +17346,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU83" t="n">
         <v>1.39</v>
@@ -17549,7 +17549,7 @@
         <v>1.31</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -18158,7 +18158,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU87" t="n">
         <v>1.92</v>
@@ -18361,7 +18361,7 @@
         <v>2.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
         <v>2.41</v>
@@ -18561,7 +18561,7 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT90" t="n">
         <v>0.8100000000000001</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>1.19</v>
@@ -19173,7 +19173,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.37</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.89</v>
@@ -20185,10 +20185,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU97" t="n">
         <v>1.77</v>
@@ -20388,10 +20388,10 @@
         <v>2.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -20794,10 +20794,10 @@
         <v>1.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU100" t="n">
         <v>1.93</v>
@@ -21200,7 +21200,7 @@
         <v>1.5</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>1.56</v>
@@ -21812,7 +21812,7 @@
         <v>1.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.51</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT106" t="n">
         <v>0.88</v>
@@ -22218,7 +22218,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU107" t="n">
         <v>1.23</v>
@@ -22418,10 +22418,10 @@
         <v>1.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU108" t="n">
         <v>1.74</v>
@@ -22621,10 +22621,10 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU109" t="n">
         <v>1.74</v>
@@ -22824,10 +22824,10 @@
         <v>0.27</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.92</v>
@@ -24045,7 +24045,7 @@
         <v>1.63</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU116" t="n">
         <v>1.22</v>
@@ -24245,7 +24245,7 @@
         <v>1.18</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT117" t="n">
         <v>0.88</v>
@@ -24448,10 +24448,10 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.36</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT119" t="n">
         <v>0.8100000000000001</v>
@@ -24857,7 +24857,7 @@
         <v>2.75</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU120" t="n">
         <v>2.19</v>
@@ -25260,7 +25260,7 @@
         <v>1.58</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT122" t="n">
         <v>1.19</v>
@@ -25466,7 +25466,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU126" t="n">
         <v>1.19</v>
@@ -26275,10 +26275,10 @@
         <v>0.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.7</v>
@@ -26681,7 +26681,7 @@
         <v>1.46</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT129" t="n">
         <v>1.19</v>
@@ -27090,7 +27090,7 @@
         <v>2.75</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU131" t="n">
         <v>2.17</v>
@@ -27290,7 +27290,7 @@
         <v>1.08</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT132" t="n">
         <v>0.9399999999999999</v>
@@ -27496,7 +27496,7 @@
         <v>1.25</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU133" t="n">
         <v>1.52</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28102,7 +28102,7 @@
         <v>1.42</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT136" t="n">
         <v>1.19</v>
@@ -28305,7 +28305,7 @@
         <v>1.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT137" t="n">
         <v>1.19</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT138" t="n">
         <v>0.9399999999999999</v>
@@ -28714,7 +28714,7 @@
         <v>1.25</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -28914,10 +28914,10 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU140" t="n">
         <v>1.84</v>
@@ -29323,7 +29323,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT145" t="n">
         <v>0.9399999999999999</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>0.88</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30744,7 +30744,7 @@
         <v>1.63</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU149" t="n">
         <v>1.15</v>
@@ -30944,7 +30944,7 @@
         <v>1.36</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="AT150" t="n">
         <v>1.19</v>
@@ -31150,7 +31150,7 @@
         <v>1.25</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -32420,6 +32420,818 @@
       </c>
       <c r="BK157" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2376100</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['3', '40', '65']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>6</v>
+      </c>
+      <c r="R158" t="n">
+        <v>6</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2376099</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45046.54166666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>32</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>2</v>
+      </c>
+      <c r="T159" t="n">
+        <v>4</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2376103</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45047.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>32</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['42', '47']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['61', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>4</v>
+      </c>
+      <c r="R160" t="n">
+        <v>7</v>
+      </c>
+      <c r="S160" t="n">
+        <v>11</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2376102</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45047.54861111111</v>
+      </c>
+      <c r="F161" t="n">
+        <v>32</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['1', '20', '79']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>7</v>
+      </c>
+      <c r="T161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT4" t="n">
         <v>1.63</v>
@@ -1918,7 +1918,7 @@
         <v>1.63</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU7" t="n">
         <v>1.14</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT11" t="n">
         <v>0.8100000000000001</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT20" t="n">
         <v>0.9399999999999999</v>
@@ -5166,7 +5166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -6993,7 +6993,7 @@
         <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU32" t="n">
         <v>1.56</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT33" t="n">
         <v>1.69</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT40" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1.56</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.94</v>
@@ -9835,7 +9835,7 @@
         <v>1.31</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -12068,7 +12068,7 @@
         <v>2.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT60" t="n">
         <v>1.19</v>
@@ -13286,7 +13286,7 @@
         <v>2.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU63" t="n">
         <v>2.28</v>
@@ -14907,10 +14907,10 @@
         <v>1.43</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -17343,7 +17343,7 @@
         <v>1.13</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT83" t="n">
         <v>1.06</v>
@@ -17752,7 +17752,7 @@
         <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -19170,7 +19170,7 @@
         <v>1.22</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT92" t="n">
         <v>1.63</v>
@@ -19985,7 +19985,7 @@
         <v>1.63</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -21606,7 +21606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT104" t="n">
         <v>0.8100000000000001</v>
@@ -23027,7 +23027,7 @@
         <v>1.2</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT111" t="n">
         <v>0.9399999999999999</v>
@@ -23842,7 +23842,7 @@
         <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU115" t="n">
         <v>1.93</v>
@@ -25463,7 +25463,7 @@
         <v>2.1</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT123" t="n">
         <v>1.69</v>
@@ -25669,7 +25669,7 @@
         <v>1.31</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -27696,7 +27696,7 @@
         <v>1.62</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT134" t="n">
         <v>1.56</v>
@@ -28105,7 +28105,7 @@
         <v>1.56</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU136" t="n">
         <v>1.79</v>
@@ -28308,7 +28308,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -29320,7 +29320,7 @@
         <v>0.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5</v>
@@ -30947,7 +30947,7 @@
         <v>2.13</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
         <v>1.85</v>
@@ -31350,7 +31350,7 @@
         <v>1.27</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AT152" t="n">
         <v>1.19</v>
@@ -31759,7 +31759,7 @@
         <v>2.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU154" t="n">
         <v>2.18</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2376105</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45051.54166666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>33</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['69', '86']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>11</v>
+      </c>
+      <c r="R162" t="n">
+        <v>4</v>
+      </c>
+      <c r="S162" t="n">
+        <v>15</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU14" t="n">
         <v>2.26</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8100000000000001</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU24" t="n">
         <v>1.32</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT30" t="n">
         <v>0.9399999999999999</v>
@@ -6790,7 +6790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT32" t="n">
         <v>1.29</v>
@@ -8414,7 +8414,7 @@
         <v>2.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.43</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>1.06</v>
@@ -9020,7 +9020,7 @@
         <v>2.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT42" t="n">
         <v>1.69</v>
@@ -10035,7 +10035,7 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT47" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -11256,7 +11256,7 @@
         <v>2.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU53" t="n">
         <v>2.3</v>
@@ -11456,7 +11456,7 @@
         <v>1.4</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT54" t="n">
         <v>1.56</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT59" t="n">
         <v>1.63</v>
@@ -12677,7 +12677,7 @@
         <v>0.76</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>1.2</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT62" t="n">
         <v>1.56</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT64" t="n">
         <v>0.8100000000000001</v>
@@ -15110,7 +15110,7 @@
         <v>1.29</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT72" t="n">
         <v>0.9399999999999999</v>
@@ -15719,10 +15719,10 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT84" t="n">
         <v>1.69</v>
@@ -17749,7 +17749,7 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT85" t="n">
         <v>1.29</v>
@@ -17955,7 +17955,7 @@
         <v>1.63</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.21</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -20591,7 +20591,7 @@
         <v>0.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT99" t="n">
         <v>0.88</v>
@@ -21406,7 +21406,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21809,7 +21809,7 @@
         <v>0.3</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
         <v>0.5</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT112" t="n">
         <v>0.8100000000000001</v>
@@ -23433,10 +23433,10 @@
         <v>1.45</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU113" t="n">
         <v>1.58</v>
@@ -25057,7 +25057,7 @@
         <v>1.18</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT121" t="n">
         <v>0.9399999999999999</v>
@@ -25263,7 +25263,7 @@
         <v>1.56</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25666,7 +25666,7 @@
         <v>1.55</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT124" t="n">
         <v>1.29</v>
@@ -26684,7 +26684,7 @@
         <v>2.13</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU129" t="n">
         <v>1.87</v>
@@ -27493,7 +27493,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT133" t="n">
         <v>1.69</v>
@@ -27899,7 +27899,7 @@
         <v>1.08</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT135" t="n">
         <v>1.06</v>
@@ -28711,7 +28711,7 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT139" t="n">
         <v>1.06</v>
@@ -29117,7 +29117,7 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT141" t="n">
         <v>0.88</v>
@@ -29729,7 +29729,7 @@
         <v>2.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU144" t="n">
         <v>2.14</v>
@@ -30132,7 +30132,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT146" t="n">
         <v>1.56</v>
@@ -31147,7 +31147,7 @@
         <v>1.64</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT151" t="n">
         <v>1.63</v>
@@ -31353,7 +31353,7 @@
         <v>0.76</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31959,7 +31959,7 @@
         <v>1.6</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT155" t="n">
         <v>1.56</v>
@@ -32162,7 +32162,7 @@
         <v>0.87</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT156" t="n">
         <v>0.8100000000000001</v>
@@ -33435,6 +33435,412 @@
       </c>
       <c r="BK162" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2376104</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45052.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>8</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>6</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2376106</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45052.59027777778</v>
+      </c>
+      <c r="F164" t="n">
+        <v>33</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['73', '90+7']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['31', '50']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>11</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" t="n">
+        <v>12</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V164" t="n">
+        <v>6</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT10" t="n">
         <v>1.06</v>
@@ -3136,7 +3136,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU13" t="n">
         <v>1.65</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT14" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU16" t="n">
         <v>2.1</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT19" t="n">
         <v>1.63</v>
@@ -4963,7 +4963,7 @@
         <v>2.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU22" t="n">
         <v>2.04</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT23" t="n">
         <v>1.29</v>
@@ -6787,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -7196,7 +7196,7 @@
         <v>0.76</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU33" t="n">
         <v>1.18</v>
@@ -7396,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
         <v>0.88</v>
@@ -8617,7 +8617,7 @@
         <v>0.76</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -9023,7 +9023,7 @@
         <v>1.24</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU42" t="n">
         <v>1.26</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT44" t="n">
         <v>1.29</v>
@@ -10644,10 +10644,10 @@
         <v>2.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU50" t="n">
         <v>1.8</v>
@@ -11050,7 +11050,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT52" t="n">
         <v>0.8100000000000001</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT56" t="n">
         <v>0.88</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT61" t="n">
         <v>0.9399999999999999</v>
@@ -13083,7 +13083,7 @@
         <v>1.24</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU62" t="n">
         <v>1.24</v>
@@ -13692,7 +13692,7 @@
         <v>2.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -15313,10 +15313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU73" t="n">
         <v>1.9</v>
@@ -15516,10 +15516,10 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9399999999999999</v>
@@ -17143,7 +17143,7 @@
         <v>1.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU82" t="n">
         <v>1.35</v>
@@ -17549,7 +17549,7 @@
         <v>1.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.63</v>
@@ -19576,7 +19576,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU95" t="n">
         <v>1.28</v>
@@ -20185,7 +20185,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT97" t="n">
         <v>1.06</v>
@@ -20391,7 +20391,7 @@
         <v>1.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU102" t="n">
         <v>1.74</v>
@@ -21403,7 +21403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT103" t="n">
         <v>1.18</v>
@@ -22418,7 +22418,7 @@
         <v>1.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT108" t="n">
         <v>1.63</v>
@@ -22624,7 +22624,7 @@
         <v>1.25</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU109" t="n">
         <v>1.74</v>
@@ -23639,7 +23639,7 @@
         <v>2.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU114" t="n">
         <v>2.21</v>
@@ -23839,7 +23839,7 @@
         <v>1.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT115" t="n">
         <v>1.29</v>
@@ -25260,7 +25260,7 @@
         <v>1.58</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT122" t="n">
         <v>1.18</v>
@@ -25466,7 +25466,7 @@
         <v>0.76</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU125" t="n">
         <v>1.88</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU126" t="n">
         <v>1.19</v>
@@ -26478,7 +26478,7 @@
         <v>1.08</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT128" t="n">
         <v>0.88</v>
@@ -27496,7 +27496,7 @@
         <v>1.24</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU133" t="n">
         <v>1.52</v>
@@ -27699,7 +27699,7 @@
         <v>0.76</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU134" t="n">
         <v>1.31</v>
@@ -28102,7 +28102,7 @@
         <v>1.42</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT136" t="n">
         <v>1.29</v>
@@ -28914,10 +28914,10 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU140" t="n">
         <v>1.84</v>
@@ -29523,7 +29523,7 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT143" t="n">
         <v>0.8100000000000001</v>
@@ -30135,7 +30135,7 @@
         <v>1.29</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU146" t="n">
         <v>1.65</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT147" t="n">
         <v>0.88</v>
@@ -30744,7 +30744,7 @@
         <v>1.63</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU149" t="n">
         <v>1.15</v>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT153" t="n">
         <v>0.9399999999999999</v>
@@ -31962,7 +31962,7 @@
         <v>1.24</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32774,7 +32774,7 @@
         <v>2.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU159" t="n">
         <v>1.85</v>
@@ -32974,7 +32974,7 @@
         <v>0.47</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT160" t="n">
         <v>0.5</v>
@@ -33841,6 +33841,412 @@
       </c>
       <c r="BK164" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2376107</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45053.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>33</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>5</v>
+      </c>
+      <c r="T165" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2376108</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45053.59722222222</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['53', '82', '89']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>6</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT9" t="n">
         <v>1.65</v>
@@ -2730,7 +2730,7 @@
         <v>0.76</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU11" t="n">
         <v>1.43</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
         <v>0.88</v>
@@ -4760,7 +4760,7 @@
         <v>1.24</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -6384,7 +6384,7 @@
         <v>2.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>1.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU38" t="n">
         <v>1.09</v>
@@ -9223,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>0.9399999999999999</v>
@@ -9832,7 +9832,7 @@
         <v>2.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT46" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>1.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU52" t="n">
         <v>1.74</v>
@@ -12268,7 +12268,7 @@
         <v>1.2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT58" t="n">
         <v>1.06</v>
@@ -13489,7 +13489,7 @@
         <v>1.29</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU64" t="n">
         <v>1.51</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT69" t="n">
         <v>1.63</v>
@@ -16125,10 +16125,10 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.26</v>
@@ -17140,7 +17140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT82" t="n">
         <v>1.65</v>
@@ -18767,7 +18767,7 @@
         <v>1.25</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU90" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>2.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU93" t="n">
         <v>2.26</v>
@@ -20388,7 +20388,7 @@
         <v>2.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT98" t="n">
         <v>1.65</v>
@@ -21609,7 +21609,7 @@
         <v>0.76</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.32</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT106" t="n">
         <v>0.88</v>
@@ -23233,7 +23233,7 @@
         <v>1.24</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24654,7 +24654,7 @@
         <v>2.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU119" t="n">
         <v>1.88</v>
@@ -26887,7 +26887,7 @@
         <v>1.63</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU130" t="n">
         <v>1.16</v>
@@ -27290,7 +27290,7 @@
         <v>1.08</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT132" t="n">
         <v>0.9399999999999999</v>
@@ -28305,7 +28305,7 @@
         <v>1.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT137" t="n">
         <v>1.29</v>
@@ -29526,7 +29526,7 @@
         <v>1.71</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
         <v>1.06</v>
@@ -32165,7 +32165,7 @@
         <v>1.29</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -33177,7 +33177,7 @@
         <v>1.53</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT161" t="n">
         <v>1.63</v>
@@ -34246,6 +34246,209 @@
         <v>7</v>
       </c>
       <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2376113</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45058.54166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>34</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>4</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT2" t="n">
         <v>0.82</v>
@@ -1106,7 +1106,7 @@
         <v>1.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.76</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT5" t="n">
         <v>1.18</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT6" t="n">
         <v>1.65</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT7" t="n">
         <v>1.29</v>
@@ -2121,7 +2121,7 @@
         <v>1.24</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT12" t="n">
         <v>0.9399999999999999</v>
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT13" t="n">
         <v>1.65</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT16" t="n">
         <v>1.65</v>
@@ -3948,7 +3948,7 @@
         <v>1.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU17" t="n">
         <v>0.76</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.08</v>
@@ -4354,7 +4354,7 @@
         <v>1.47</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU19" t="n">
         <v>1.27</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT22" t="n">
         <v>1.65</v>
@@ -5572,7 +5572,7 @@
         <v>1.29</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU25" t="n">
         <v>1.25</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.9</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.2</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU28" t="n">
         <v>1.1</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT29" t="n">
         <v>0.82</v>
@@ -7599,10 +7599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -7802,10 +7802,10 @@
         <v>0.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU36" t="n">
         <v>1.82</v>
@@ -8008,7 +8008,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU37" t="n">
         <v>1.72</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT38" t="n">
         <v>0.82</v>
@@ -8411,7 +8411,7 @@
         <v>2.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT39" t="n">
         <v>1.18</v>
@@ -8820,7 +8820,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.53</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU45" t="n">
         <v>1.9</v>
@@ -10038,7 +10038,7 @@
         <v>1.24</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT48" t="n">
         <v>0.9399999999999999</v>
@@ -10444,7 +10444,7 @@
         <v>1.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU49" t="n">
         <v>1.39</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT51" t="n">
         <v>0.9399999999999999</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT53" t="n">
         <v>1.18</v>
@@ -11662,7 +11662,7 @@
         <v>0.76</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU55" t="n">
         <v>1.15</v>
@@ -11865,7 +11865,7 @@
         <v>1.47</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU56" t="n">
         <v>1.81</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT57" t="n">
         <v>1.29</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.12</v>
@@ -12474,7 +12474,7 @@
         <v>1.24</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU59" t="n">
         <v>1.3</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT63" t="n">
         <v>1.29</v>
@@ -13689,7 +13689,7 @@
         <v>2.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT65" t="n">
         <v>1.65</v>
@@ -13895,7 +13895,7 @@
         <v>1.47</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU66" t="n">
         <v>1.78</v>
@@ -14095,10 +14095,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.7</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -14504,7 +14504,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU69" t="n">
         <v>1.21</v>
@@ -14704,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU70" t="n">
         <v>1.83</v>
@@ -15922,10 +15922,10 @@
         <v>0.29</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU76" t="n">
         <v>1.17</v>
@@ -16328,10 +16328,10 @@
         <v>1.29</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.88</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU80" t="n">
         <v>2.36</v>
@@ -17346,7 +17346,7 @@
         <v>0.76</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.39</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT86" t="n">
         <v>1.18</v>
@@ -18158,7 +18158,7 @@
         <v>1.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU87" t="n">
         <v>1.92</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU88" t="n">
         <v>2.41</v>
@@ -18561,10 +18561,10 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -18764,7 +18764,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT90" t="n">
         <v>0.82</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT91" t="n">
         <v>1.18</v>
@@ -19173,7 +19173,7 @@
         <v>0.76</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU92" t="n">
         <v>1.37</v>
@@ -19373,7 +19373,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT93" t="n">
         <v>0.82</v>
@@ -19579,7 +19579,7 @@
         <v>1.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU94" t="n">
         <v>1.89</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT95" t="n">
         <v>1.65</v>
@@ -19982,7 +19982,7 @@
         <v>1.56</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT96" t="n">
         <v>1.29</v>
@@ -20188,7 +20188,7 @@
         <v>1.47</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.77</v>
@@ -20594,7 +20594,7 @@
         <v>1.24</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -20794,10 +20794,10 @@
         <v>1.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU100" t="n">
         <v>1.93</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT101" t="n">
         <v>0.9399999999999999</v>
@@ -21200,7 +21200,7 @@
         <v>1.5</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT102" t="n">
         <v>1.65</v>
@@ -21812,7 +21812,7 @@
         <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU105" t="n">
         <v>1.51</v>
@@ -22015,7 +22015,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU106" t="n">
         <v>1.28</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.23</v>
@@ -22421,7 +22421,7 @@
         <v>1.47</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU108" t="n">
         <v>1.74</v>
@@ -22621,7 +22621,7 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT109" t="n">
         <v>1.65</v>
@@ -22824,10 +22824,10 @@
         <v>0.27</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU110" t="n">
         <v>1.92</v>
@@ -23636,7 +23636,7 @@
         <v>1.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT114" t="n">
         <v>1.65</v>
@@ -24042,10 +24042,10 @@
         <v>1.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU116" t="n">
         <v>1.22</v>
@@ -24245,10 +24245,10 @@
         <v>1.18</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24451,7 +24451,7 @@
         <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU118" t="n">
         <v>1.36</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT119" t="n">
         <v>0.82</v>
@@ -24854,10 +24854,10 @@
         <v>1.09</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>2.19</v>
@@ -26072,7 +26072,7 @@
         <v>1.91</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT126" t="n">
         <v>1.65</v>
@@ -26275,10 +26275,10 @@
         <v>0.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU127" t="n">
         <v>1.7</v>
@@ -26481,7 +26481,7 @@
         <v>1.71</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.85</v>
@@ -26681,7 +26681,7 @@
         <v>1.46</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT129" t="n">
         <v>1.18</v>
@@ -26884,7 +26884,7 @@
         <v>0.85</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.82</v>
@@ -27087,10 +27087,10 @@
         <v>1.77</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU131" t="n">
         <v>2.17</v>
@@ -27902,7 +27902,7 @@
         <v>1.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT138" t="n">
         <v>0.9399999999999999</v>
@@ -28714,7 +28714,7 @@
         <v>1.24</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -29120,7 +29120,7 @@
         <v>1.29</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -29323,7 +29323,7 @@
         <v>0.76</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29726,7 +29726,7 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT144" t="n">
         <v>1.18</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT145" t="n">
         <v>0.9399999999999999</v>
@@ -30338,7 +30338,7 @@
         <v>1.47</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU147" t="n">
         <v>1.8</v>
@@ -30541,7 +30541,7 @@
         <v>1.29</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30741,7 +30741,7 @@
         <v>1.79</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT149" t="n">
         <v>1.65</v>
@@ -30944,7 +30944,7 @@
         <v>1.36</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT150" t="n">
         <v>1.29</v>
@@ -31150,7 +31150,7 @@
         <v>1.24</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31756,7 +31756,7 @@
         <v>1.27</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT154" t="n">
         <v>1.29</v>
@@ -32365,10 +32365,10 @@
         <v>0.93</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU157" t="n">
         <v>1.13</v>
@@ -32568,10 +32568,10 @@
         <v>0.93</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -32771,7 +32771,7 @@
         <v>1.73</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT159" t="n">
         <v>1.65</v>
@@ -32977,7 +32977,7 @@
         <v>1.47</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU160" t="n">
         <v>1.79</v>
@@ -33180,7 +33180,7 @@
         <v>1.29</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AU161" t="n">
         <v>1.43</v>
@@ -34450,6 +34450,818 @@
       </c>
       <c r="BK167" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2376109</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45059.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>34</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['25', '50', '62']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>6</v>
+      </c>
+      <c r="S168" t="n">
+        <v>12</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V168" t="n">
+        <v>5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2376112</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45059.59027777778</v>
+      </c>
+      <c r="F169" t="n">
+        <v>34</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4</v>
+      </c>
+      <c r="R169" t="n">
+        <v>8</v>
+      </c>
+      <c r="S169" t="n">
+        <v>12</v>
+      </c>
+      <c r="T169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2376111</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45060.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>34</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['47', '58']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4</v>
+      </c>
+      <c r="R170" t="n">
+        <v>10</v>
+      </c>
+      <c r="S170" t="n">
+        <v>14</v>
+      </c>
+      <c r="T170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2376110</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45060.59027777778</v>
+      </c>
+      <c r="F171" t="n">
+        <v>34</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['31', '54', '55', '68']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>6</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V171" t="n">
+        <v>11</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT4" t="n">
         <v>1.53</v>
@@ -1715,7 +1715,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU7" t="n">
         <v>1.14</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>0.82</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT9" t="n">
         <v>1.65</v>
@@ -2527,7 +2527,7 @@
         <v>1.47</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT11" t="n">
         <v>0.82</v>
@@ -3136,7 +3136,7 @@
         <v>1.35</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU13" t="n">
         <v>1.65</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT17" t="n">
         <v>0.82</v>
@@ -4151,7 +4151,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU18" t="n">
         <v>1.08</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT20" t="n">
         <v>0.9399999999999999</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.82</v>
@@ -4963,7 +4963,7 @@
         <v>2.76</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU22" t="n">
         <v>2.04</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT25" t="n">
         <v>0.47</v>
@@ -5978,7 +5978,7 @@
         <v>2.76</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU27" t="n">
         <v>2.2</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>0.9399999999999999</v>
@@ -6993,7 +6993,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU32" t="n">
         <v>1.56</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT33" t="n">
         <v>1.65</v>
@@ -7399,7 +7399,7 @@
         <v>1.71</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU34" t="n">
         <v>1.91</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -8820,7 +8820,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.53</v>
@@ -9020,7 +9020,7 @@
         <v>2.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>1.65</v>
@@ -9223,7 +9223,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT43" t="n">
         <v>0.9399999999999999</v>
@@ -9429,7 +9429,7 @@
         <v>1.47</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU44" t="n">
         <v>1.94</v>
@@ -9832,10 +9832,10 @@
         <v>2.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10035,10 +10035,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU54" t="n">
         <v>1.53</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT55" t="n">
         <v>0.47</v>
@@ -12068,7 +12068,7 @@
         <v>2.18</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU57" t="n">
         <v>2</v>
@@ -12268,10 +12268,10 @@
         <v>1.2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU58" t="n">
         <v>1.12</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
         <v>1.53</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT60" t="n">
         <v>1.18</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU62" t="n">
         <v>1.24</v>
@@ -13286,7 +13286,7 @@
         <v>2.76</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU63" t="n">
         <v>2.28</v>
@@ -14098,7 +14098,7 @@
         <v>1.35</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU67" t="n">
         <v>1.7</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT69" t="n">
         <v>1.53</v>
@@ -14907,10 +14907,10 @@
         <v>1.43</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15519,7 +15519,7 @@
         <v>1.47</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU74" t="n">
         <v>1.73</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>1.18</v>
@@ -16125,7 +16125,7 @@
         <v>0.43</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT77" t="n">
         <v>0.82</v>
@@ -16331,7 +16331,7 @@
         <v>2.18</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.88</v>
@@ -17140,10 +17140,10 @@
         <v>1.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU82" t="n">
         <v>1.35</v>
@@ -17343,10 +17343,10 @@
         <v>1.13</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.39</v>
@@ -17749,10 +17749,10 @@
         <v>1.63</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -19170,7 +19170,7 @@
         <v>1.22</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT92" t="n">
         <v>1.53</v>
@@ -19782,7 +19782,7 @@
         <v>1.71</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU95" t="n">
         <v>1.28</v>
@@ -19985,7 +19985,7 @@
         <v>1.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20188,7 +20188,7 @@
         <v>1.47</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU97" t="n">
         <v>1.77</v>
@@ -20388,7 +20388,7 @@
         <v>2.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT98" t="n">
         <v>1.65</v>
@@ -20591,7 +20591,7 @@
         <v>0.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT99" t="n">
         <v>0.82</v>
@@ -21203,7 +21203,7 @@
         <v>1.35</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU102" t="n">
         <v>1.74</v>
@@ -21606,7 +21606,7 @@
         <v>0.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT104" t="n">
         <v>0.82</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT106" t="n">
         <v>0.82</v>
@@ -22218,7 +22218,7 @@
         <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU107" t="n">
         <v>1.23</v>
@@ -23027,7 +23027,7 @@
         <v>1.2</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT111" t="n">
         <v>0.9399999999999999</v>
@@ -23230,7 +23230,7 @@
         <v>0.73</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -23639,7 +23639,7 @@
         <v>2.76</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU114" t="n">
         <v>2.21</v>
@@ -23842,7 +23842,7 @@
         <v>1.71</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU115" t="n">
         <v>1.93</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT118" t="n">
         <v>0.47</v>
@@ -24857,7 +24857,7 @@
         <v>2.76</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU120" t="n">
         <v>2.19</v>
@@ -25057,7 +25057,7 @@
         <v>1.18</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT121" t="n">
         <v>0.9399999999999999</v>
@@ -25463,7 +25463,7 @@
         <v>2.1</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT123" t="n">
         <v>1.65</v>
@@ -25669,7 +25669,7 @@
         <v>1.29</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25872,7 +25872,7 @@
         <v>1.71</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU125" t="n">
         <v>1.88</v>
@@ -27290,7 +27290,7 @@
         <v>1.08</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT132" t="n">
         <v>0.9399999999999999</v>
@@ -27493,7 +27493,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>1.65</v>
@@ -27696,10 +27696,10 @@
         <v>1.62</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU134" t="n">
         <v>1.31</v>
@@ -27902,7 +27902,7 @@
         <v>1.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU135" t="n">
         <v>1.65</v>
@@ -28105,7 +28105,7 @@
         <v>1.47</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU136" t="n">
         <v>1.79</v>
@@ -28305,10 +28305,10 @@
         <v>1.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28711,10 +28711,10 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -29320,7 +29320,7 @@
         <v>0.29</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT142" t="n">
         <v>0.47</v>
@@ -30135,7 +30135,7 @@
         <v>1.29</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU146" t="n">
         <v>1.65</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU148" t="n">
         <v>1.43</v>
@@ -30947,7 +30947,7 @@
         <v>2.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU150" t="n">
         <v>1.85</v>
@@ -31147,7 +31147,7 @@
         <v>1.64</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT151" t="n">
         <v>1.53</v>
@@ -31350,7 +31350,7 @@
         <v>1.27</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT152" t="n">
         <v>1.18</v>
@@ -31759,7 +31759,7 @@
         <v>2.76</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU154" t="n">
         <v>2.18</v>
@@ -31959,10 +31959,10 @@
         <v>1.6</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU155" t="n">
         <v>1.51</v>
@@ -32571,7 +32571,7 @@
         <v>1.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -33177,7 +33177,7 @@
         <v>1.53</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT161" t="n">
         <v>1.53</v>
@@ -33380,10 +33380,10 @@
         <v>1.19</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU162" t="n">
         <v>1.38</v>
@@ -33583,7 +33583,7 @@
         <v>1.19</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT163" t="n">
         <v>1.18</v>
@@ -34195,7 +34195,7 @@
         <v>1.47</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU166" t="n">
         <v>1.77</v>
@@ -34395,7 +34395,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT167" t="n">
         <v>0.82</v>
@@ -34601,7 +34601,7 @@
         <v>2.18</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU168" t="n">
         <v>1.79</v>
@@ -35262,6 +35262,615 @@
       </c>
       <c r="BK171" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2376114</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45065.45833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>35</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>5</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7</v>
+      </c>
+      <c r="T172" t="n">
+        <v>5</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2376118</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45065.54513888889</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>4</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['3', '62', '76', '80']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2376116</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45066.54166666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3</v>
+      </c>
+      <c r="L174" t="n">
+        <v>5</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>7</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['2', '22', '73', '83', '86']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['34', '88']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>3</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4</v>
+      </c>
+      <c r="S174" t="n">
+        <v>7</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.22</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT10" t="n">
         <v>1.11</v>
@@ -2933,7 +2933,7 @@
         <v>2.76</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>2.35</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT15" t="n">
         <v>0.47</v>
@@ -3745,7 +3745,7 @@
         <v>1.35</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU16" t="n">
         <v>2.1</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT19" t="n">
         <v>1.53</v>
@@ -4557,7 +4557,7 @@
         <v>0.72</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT24" t="n">
         <v>1.18</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU30" t="n">
         <v>1.49</v>
@@ -6787,7 +6787,7 @@
         <v>2.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
         <v>1.22</v>
@@ -7196,7 +7196,7 @@
         <v>0.72</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU33" t="n">
         <v>1.18</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT41" t="n">
         <v>1.11</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU42" t="n">
         <v>1.26</v>
@@ -9226,7 +9226,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU43" t="n">
         <v>1.23</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT44" t="n">
         <v>1.22</v>
@@ -10241,7 +10241,7 @@
         <v>2.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU48" t="n">
         <v>1.97</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT49" t="n">
         <v>0.82</v>
@@ -10644,10 +10644,10 @@
         <v>2.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU50" t="n">
         <v>1.8</v>
@@ -10850,7 +10850,7 @@
         <v>1.35</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU51" t="n">
         <v>1.67</v>
@@ -11456,7 +11456,7 @@
         <v>1.4</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT54" t="n">
         <v>1.72</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>0.82</v>
@@ -12880,7 +12880,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU61" t="n">
         <v>1.75</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>0.82</v>
@@ -13692,7 +13692,7 @@
         <v>2.18</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>0.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>0.47</v>
@@ -15110,10 +15110,10 @@
         <v>1.29</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU73" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT74" t="n">
         <v>1.72</v>
@@ -16937,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU81" t="n">
         <v>1.77</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU84" t="n">
         <v>1.47</v>
@@ -20185,7 +20185,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT97" t="n">
         <v>1.11</v>
@@ -20391,7 +20391,7 @@
         <v>1.22</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -21000,7 +21000,7 @@
         <v>2.76</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU101" t="n">
         <v>2.23</v>
@@ -21809,7 +21809,7 @@
         <v>0.3</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT105" t="n">
         <v>0.47</v>
@@ -22418,7 +22418,7 @@
         <v>1.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT108" t="n">
         <v>1.53</v>
@@ -22624,7 +22624,7 @@
         <v>1.35</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU109" t="n">
         <v>1.74</v>
@@ -23030,7 +23030,7 @@
         <v>0.72</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.36</v>
@@ -23433,7 +23433,7 @@
         <v>1.45</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1.18</v>
@@ -25060,7 +25060,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU121" t="n">
         <v>1.49</v>
@@ -25260,7 +25260,7 @@
         <v>1.58</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT122" t="n">
         <v>1.18</v>
@@ -25466,7 +25466,7 @@
         <v>0.72</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -25666,7 +25666,7 @@
         <v>1.55</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT124" t="n">
         <v>1.22</v>
@@ -26075,7 +26075,7 @@
         <v>1.71</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU126" t="n">
         <v>1.19</v>
@@ -27293,7 +27293,7 @@
         <v>1.22</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU132" t="n">
         <v>1.41</v>
@@ -27496,7 +27496,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU133" t="n">
         <v>1.52</v>
@@ -27899,7 +27899,7 @@
         <v>1.08</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT135" t="n">
         <v>1.11</v>
@@ -28102,7 +28102,7 @@
         <v>1.42</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT136" t="n">
         <v>1.22</v>
@@ -28511,7 +28511,7 @@
         <v>2.18</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -28914,10 +28914,10 @@
         <v>1.69</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU140" t="n">
         <v>1.84</v>
@@ -29117,7 +29117,7 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT141" t="n">
         <v>0.82</v>
@@ -29932,7 +29932,7 @@
         <v>1.35</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU145" t="n">
         <v>1.66</v>
@@ -30132,7 +30132,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT146" t="n">
         <v>1.72</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>0.82</v>
@@ -30744,7 +30744,7 @@
         <v>1.71</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU149" t="n">
         <v>1.15</v>
@@ -31556,7 +31556,7 @@
         <v>1.71</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -32162,7 +32162,7 @@
         <v>0.87</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT156" t="n">
         <v>0.82</v>
@@ -32774,7 +32774,7 @@
         <v>2.18</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU159" t="n">
         <v>1.85</v>
@@ -32974,7 +32974,7 @@
         <v>0.47</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT160" t="n">
         <v>0.47</v>
@@ -33786,10 +33786,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU164" t="n">
         <v>1.67</v>
@@ -33992,7 +33992,7 @@
         <v>1.71</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -34192,7 +34192,7 @@
         <v>1.56</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT166" t="n">
         <v>1.72</v>
@@ -35871,6 +35871,412 @@
       </c>
       <c r="BK174" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2376117</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45067.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>35</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['8', '32', '90+2']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>6</v>
+      </c>
+      <c r="R175" t="n">
+        <v>7</v>
+      </c>
+      <c r="S175" t="n">
+        <v>13</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2376115</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45067.60416666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>35</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['43', '62']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>6</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4</v>
+      </c>
+      <c r="S176" t="n">
+        <v>10</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Prva HNL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.72</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>1.72</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1.22</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.72</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU11" t="n">
         <v>1.43</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT12" t="n">
         <v>0.89</v>
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.72</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>2.26</v>
@@ -3542,7 +3542,7 @@
         <v>1.22</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>1.72</v>
@@ -3948,7 +3948,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU17" t="n">
         <v>0.76</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.11</v>
@@ -4354,7 +4354,7 @@
         <v>1.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.27</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT22" t="n">
         <v>1.72</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
         <v>1.22</v>
@@ -5369,7 +5369,7 @@
         <v>1.22</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.32</v>
@@ -5572,7 +5572,7 @@
         <v>1.22</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU25" t="n">
         <v>1.25</v>
@@ -5772,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.9</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT27" t="n">
         <v>1.11</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.1</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
         <v>1.72</v>
@@ -7599,10 +7599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>2.15</v>
@@ -7802,10 +7802,10 @@
         <v>0.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU36" t="n">
         <v>1.82</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU37" t="n">
         <v>1.72</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU38" t="n">
         <v>1.09</v>
@@ -8411,10 +8411,10 @@
         <v>2.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>1.43</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.9</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT48" t="n">
         <v>0.89</v>
@@ -10444,7 +10444,7 @@
         <v>1.22</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU49" t="n">
         <v>1.39</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>0.89</v>
@@ -11050,10 +11050,10 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.74</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU53" t="n">
         <v>2.3</v>
@@ -11662,7 +11662,7 @@
         <v>0.72</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU55" t="n">
         <v>1.15</v>
@@ -11865,7 +11865,7 @@
         <v>1.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU56" t="n">
         <v>1.81</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT57" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.3</v>
@@ -12677,7 +12677,7 @@
         <v>0.72</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU60" t="n">
         <v>1.2</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.89</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT63" t="n">
         <v>1.22</v>
@@ -13489,7 +13489,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU64" t="n">
         <v>1.51</v>
@@ -13689,7 +13689,7 @@
         <v>2.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT65" t="n">
         <v>1.72</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.78</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT67" t="n">
         <v>1.11</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.16</v>
@@ -14504,7 +14504,7 @@
         <v>1.22</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.21</v>
@@ -14704,10 +14704,10 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU70" t="n">
         <v>1.83</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT73" t="n">
         <v>1.72</v>
@@ -15722,7 +15722,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -15922,10 +15922,10 @@
         <v>0.29</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU76" t="n">
         <v>1.17</v>
@@ -16128,7 +16128,7 @@
         <v>1.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1.26</v>
@@ -16328,7 +16328,7 @@
         <v>1.29</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>2.36</v>
@@ -17952,10 +17952,10 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU86" t="n">
         <v>1.21</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.92</v>
@@ -18358,10 +18358,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU88" t="n">
         <v>2.41</v>
@@ -18561,10 +18561,10 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -18764,10 +18764,10 @@
         <v>0.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.73</v>
@@ -18967,10 +18967,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19173,7 +19173,7 @@
         <v>0.72</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.37</v>
@@ -19373,10 +19373,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>2.26</v>
@@ -19576,10 +19576,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU94" t="n">
         <v>1.89</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.72</v>
@@ -19982,7 +19982,7 @@
         <v>1.56</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
         <v>1.22</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -20794,10 +20794,10 @@
         <v>1.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.93</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT101" t="n">
         <v>0.89</v>
@@ -21200,7 +21200,7 @@
         <v>1.5</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
         <v>1.72</v>
@@ -21403,10 +21403,10 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21609,7 +21609,7 @@
         <v>0.72</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU104" t="n">
         <v>1.32</v>
@@ -21812,7 +21812,7 @@
         <v>1.22</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.51</v>
@@ -22015,7 +22015,7 @@
         <v>1.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU106" t="n">
         <v>1.28</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT107" t="n">
         <v>1.11</v>
@@ -22421,7 +22421,7 @@
         <v>1.56</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.74</v>
@@ -22621,7 +22621,7 @@
         <v>2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT109" t="n">
         <v>1.72</v>
@@ -22824,10 +22824,10 @@
         <v>0.27</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU110" t="n">
         <v>1.92</v>
@@ -23233,7 +23233,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -23436,7 +23436,7 @@
         <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU113" t="n">
         <v>1.58</v>
@@ -23636,7 +23636,7 @@
         <v>1.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT114" t="n">
         <v>1.72</v>
@@ -23839,7 +23839,7 @@
         <v>1.4</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>1.22</v>
@@ -24042,10 +24042,10 @@
         <v>1.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.22</v>
@@ -24245,10 +24245,10 @@
         <v>1.18</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24451,7 +24451,7 @@
         <v>1.22</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU118" t="n">
         <v>1.36</v>
@@ -24651,10 +24651,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU119" t="n">
         <v>1.88</v>
@@ -24854,7 +24854,7 @@
         <v>1.09</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT120" t="n">
         <v>1.11</v>
@@ -25263,7 +25263,7 @@
         <v>1.56</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25869,7 +25869,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
         <v>1.72</v>
@@ -26072,7 +26072,7 @@
         <v>1.91</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT126" t="n">
         <v>1.72</v>
@@ -26275,10 +26275,10 @@
         <v>0.31</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU127" t="n">
         <v>1.7</v>
@@ -26478,10 +26478,10 @@
         <v>1.08</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU128" t="n">
         <v>1.85</v>
@@ -26681,10 +26681,10 @@
         <v>1.46</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.87</v>
@@ -26884,10 +26884,10 @@
         <v>0.85</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.16</v>
@@ -27087,10 +27087,10 @@
         <v>1.77</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU131" t="n">
         <v>2.17</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT138" t="n">
         <v>0.89</v>
@@ -29120,7 +29120,7 @@
         <v>1.22</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -29323,7 +29323,7 @@
         <v>0.72</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29523,10 +29523,10 @@
         <v>0.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -29726,10 +29726,10 @@
         <v>1.36</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU144" t="n">
         <v>2.14</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>0.89</v>
@@ -30338,7 +30338,7 @@
         <v>1.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU147" t="n">
         <v>1.8</v>
@@ -30741,7 +30741,7 @@
         <v>1.79</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
         <v>1.72</v>
@@ -30944,7 +30944,7 @@
         <v>1.36</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT150" t="n">
         <v>1.22</v>
@@ -31150,7 +31150,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.53</v>
@@ -31353,7 +31353,7 @@
         <v>0.72</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT153" t="n">
         <v>0.89</v>
@@ -31756,7 +31756,7 @@
         <v>1.27</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT154" t="n">
         <v>1.22</v>
@@ -32165,7 +32165,7 @@
         <v>1.22</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU156" t="n">
         <v>1.65</v>
@@ -32365,10 +32365,10 @@
         <v>0.93</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU157" t="n">
         <v>1.13</v>
@@ -32568,7 +32568,7 @@
         <v>0.93</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
         <v>1.11</v>
@@ -32771,7 +32771,7 @@
         <v>1.73</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT159" t="n">
         <v>1.72</v>
@@ -32977,7 +32977,7 @@
         <v>1.56</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU160" t="n">
         <v>1.79</v>
@@ -33180,7 +33180,7 @@
         <v>1.22</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.43</v>
@@ -33586,7 +33586,7 @@
         <v>1.33</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU163" t="n">
         <v>1.48</v>
@@ -33989,7 +33989,7 @@
         <v>1.69</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.72</v>
@@ -34398,7 +34398,7 @@
         <v>1.22</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU167" t="n">
         <v>1.42</v>
@@ -34598,7 +34598,7 @@
         <v>1.06</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT168" t="n">
         <v>1.11</v>
@@ -34801,10 +34801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU169" t="n">
         <v>1.13</v>
@@ -35004,10 +35004,10 @@
         <v>1.63</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU170" t="n">
         <v>1.62</v>
@@ -35207,10 +35207,10 @@
         <v>0.88</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU171" t="n">
         <v>2.17</v>
@@ -36277,6 +36277,1021 @@
       </c>
       <c r="BK176" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2376122</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45072.54166666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>36</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3</v>
+      </c>
+      <c r="R177" t="n">
+        <v>10</v>
+      </c>
+      <c r="S177" t="n">
+        <v>13</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2376123</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45073.47916666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>36</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>2</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>8</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2376120</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45073.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>36</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" t="n">
+        <v>8</v>
+      </c>
+      <c r="S179" t="n">
+        <v>12</v>
+      </c>
+      <c r="T179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2376119</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Šibenik</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['54', '64', '77']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>6</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V180" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2376121</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45074.59375</v>
+      </c>
+      <c r="F181" t="n">
+        <v>36</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3</v>
+      </c>
+      <c r="L181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['23', '33', '80', '88']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>7</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>7</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
